--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.559847769284387</v>
+        <v>13.559847770063055</v>
       </c>
       <c r="C2">
-        <v>15.309643106797788</v>
+        <v>15.309643106780532</v>
       </c>
       <c r="D2">
-        <v>13.931405350130314</v>
+        <v>13.931405346840242</v>
       </c>
       <c r="E2">
-        <v>15.946732295123967</v>
+        <v>15.94673229312861</v>
       </c>
       <c r="F2">
-        <v>10.659820717980404</v>
+        <v>10.659820714360505</v>
       </c>
       <c r="G2">
-        <v>13.17978934645171</v>
+        <v>13.179789345653708</v>
       </c>
       <c r="H2">
-        <v>10.755194059643845</v>
+        <v>10.755194058210535</v>
       </c>
       <c r="I2">
-        <v>12.229611968316545</v>
+        <v>12.229611968048246</v>
       </c>
       <c r="J2">
-        <v>15.506664592418756</v>
+        <v>15.50666459013563</v>
       </c>
       <c r="K2">
-        <v>12.318889129776732</v>
+        <v>12.318889127070285</v>
       </c>
       <c r="L2">
-        <v>11.8819536845992</v>
+        <v>11.881953684715016</v>
       </c>
       <c r="M2">
-        <v>13.743837364617459</v>
+        <v>13.743837365031922</v>
       </c>
       <c r="N2">
-        <v>13.023581230842298</v>
+        <v>13.023581230678301</v>
       </c>
       <c r="O2">
-        <v>11.47953306891832</v>
+        <v>11.479533064867338</v>
       </c>
       <c r="P2">
-        <v>14.035900654735276</v>
+        <v>14.035900654792927</v>
       </c>
       <c r="Q2">
-        <v>12.594395539372297</v>
+        <v>12.594395538148426</v>
       </c>
       <c r="R2">
-        <v>11.34435689606458</v>
+        <v>11.344356891707601</v>
       </c>
       <c r="S2">
-        <v>17.220459406998323</v>
+        <v>17.220459409398188</v>
       </c>
       <c r="T2">
-        <v>13.132324272672827</v>
+        <v>13.132324275350122</v>
       </c>
       <c r="U2">
-        <v>14.690115632844867</v>
+        <v>14.690115627753149</v>
       </c>
       <c r="V2">
-        <v>10.271036478037734</v>
+        <v>10.271036474639118</v>
       </c>
       <c r="W2">
-        <v>9.3257064620536543</v>
+        <v>9.3257064603013688</v>
       </c>
       <c r="X2">
-        <v>13.986831257271831</v>
+        <v>13.986831256690488</v>
       </c>
       <c r="Y2">
-        <v>14.990734427691944</v>
+        <v>14.990734423721753</v>
       </c>
       <c r="Z2">
-        <v>14.957034543430673</v>
+        <v>14.957034538394881</v>
       </c>
       <c r="AA2">
-        <v>14.730756017110934</v>
+        <v>14.730756013541086</v>
       </c>
       <c r="AB2">
-        <v>16.422225327089507</v>
+        <v>16.422225320800308</v>
       </c>
       <c r="AC2">
-        <v>13.169922429739971</v>
+        <v>13.169922426689668</v>
       </c>
       <c r="AD2">
-        <v>16.408794299361222</v>
+        <v>16.408794292166409</v>
       </c>
       <c r="AE2">
-        <v>12.241937585958404</v>
+        <v>12.241937582536366</v>
       </c>
       <c r="AF2">
-        <v>13.696067385579047</v>
+        <v>13.696067382417901</v>
       </c>
       <c r="AG2">
-        <v>11.271554563465241</v>
+        <v>11.271554560344898</v>
       </c>
       <c r="AH2">
-        <v>12.485951576391335</v>
+        <v>12.485951573328609</v>
       </c>
       <c r="AI2">
-        <v>17.102611575686065</v>
+        <v>17.102611569583114</v>
       </c>
       <c r="AJ2">
-        <v>12.536612308847509</v>
+        <v>12.536612306944086</v>
       </c>
       <c r="AK2">
-        <v>12.374043386353012</v>
+        <v>12.374043383682949</v>
       </c>
       <c r="AL2">
-        <v>14.517844805048441</v>
+        <v>14.517844802290686</v>
       </c>
       <c r="AM2">
-        <v>12.668339276182166</v>
+        <v>12.668339273527021</v>
       </c>
       <c r="AN2">
-        <v>12.442103638379205</v>
+        <v>12.44210363328866</v>
       </c>
       <c r="AO2">
-        <v>15.270381057127539</v>
+        <v>15.27038105483218</v>
       </c>
       <c r="AP2">
-        <v>13.376931821348126</v>
+        <v>13.376931816662463</v>
       </c>
       <c r="AQ2">
-        <v>11.503110242531477</v>
+        <v>11.503110239949237</v>
       </c>
       <c r="AR2">
-        <v>16.895028804825131</v>
+        <v>16.895028805152535</v>
       </c>
       <c r="AS2">
-        <v>13.195539691516725</v>
+        <v>13.195539687113536</v>
       </c>
       <c r="AT2">
-        <v>16.464905625053312</v>
+        <v>16.464905620804522</v>
       </c>
       <c r="AU2">
-        <v>11.751985793115132</v>
+        <v>11.75198578734577</v>
       </c>
       <c r="AV2">
-        <v>10.614286768844567</v>
+        <v>10.614286763444658</v>
       </c>
       <c r="AW2">
-        <v>13.739086398381776</v>
+        <v>13.739086393979481</v>
       </c>
       <c r="AX2">
-        <v>16.160546056326488</v>
+        <v>16.160546050492933</v>
       </c>
       <c r="AY2">
-        <v>16.293439159260185</v>
+        <v>16.293439154837319</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.086530866077339</v>
+        <v>14.086530863974648</v>
       </c>
       <c r="C3">
-        <v>13.283528020391595</v>
+        <v>13.283528016111635</v>
       </c>
       <c r="D3">
-        <v>15.45288767156042</v>
+        <v>15.452887663780587</v>
       </c>
       <c r="E3">
-        <v>14.575323112905336</v>
+        <v>14.575323109217337</v>
       </c>
       <c r="F3">
-        <v>10.353914158571193</v>
+        <v>10.35391415535873</v>
       </c>
       <c r="G3">
-        <v>13.961328233230978</v>
+        <v>13.961328231243977</v>
       </c>
       <c r="H3">
-        <v>10.017611707062599</v>
+        <v>10.01761170527304</v>
       </c>
       <c r="I3">
-        <v>12.746362002134612</v>
+        <v>12.746362000421385</v>
       </c>
       <c r="J3">
-        <v>16.067306970095657</v>
+        <v>16.067306968992135</v>
       </c>
       <c r="K3">
-        <v>14.492440218422784</v>
+        <v>14.492440218567854</v>
       </c>
       <c r="L3">
-        <v>12.400291925469563</v>
+        <v>12.400291923518186</v>
       </c>
       <c r="M3">
-        <v>14.317426090577968</v>
+        <v>14.317367369911372</v>
       </c>
       <c r="N3">
-        <v>12.737997269305174</v>
+        <v>12.737997266455428</v>
       </c>
       <c r="O3">
-        <v>9.6421571265742934</v>
+        <v>9.6421571218831499</v>
       </c>
       <c r="P3">
-        <v>14.01929937238341</v>
+        <v>14.019299366001761</v>
       </c>
       <c r="Q3">
-        <v>10.963009920975033</v>
+        <v>10.963009919495157</v>
       </c>
       <c r="R3">
-        <v>9.409352096255617</v>
+        <v>9.4093520939954178</v>
       </c>
       <c r="S3">
-        <v>15.345768387577488</v>
+        <v>15.345768386326311</v>
       </c>
       <c r="T3">
-        <v>13.233402903763453</v>
+        <v>13.233402900733427</v>
       </c>
       <c r="U3">
-        <v>15.752790177732996</v>
+        <v>15.752790174598196</v>
       </c>
       <c r="V3">
-        <v>11.698585145347639</v>
+        <v>11.698585143474382</v>
       </c>
       <c r="W3">
-        <v>10.755356728946074</v>
+        <v>10.755356726586301</v>
       </c>
       <c r="X3">
-        <v>12.642592881754835</v>
+        <v>12.642592879147859</v>
       </c>
       <c r="Y3">
-        <v>17.324903245697961</v>
+        <v>17.324903240210077</v>
       </c>
       <c r="Z3">
-        <v>15.829330923352492</v>
+        <v>15.829330917911175</v>
       </c>
       <c r="AA3">
-        <v>14.608805847374132</v>
+        <v>14.608805843402854</v>
       </c>
       <c r="AB3">
-        <v>14.771150255532319</v>
+        <v>14.771150250122142</v>
       </c>
       <c r="AC3">
-        <v>15.340458512365295</v>
+        <v>15.34045850935208</v>
       </c>
       <c r="AD3">
-        <v>16.78192741952865</v>
+        <v>16.781927415173257</v>
       </c>
       <c r="AE3">
-        <v>12.51751743942272</v>
+        <v>12.517517437614186</v>
       </c>
       <c r="AF3">
-        <v>14.408586339922977</v>
+        <v>14.408586336067961</v>
       </c>
       <c r="AG3">
-        <v>11.919962787424591</v>
+        <v>11.919962784839219</v>
       </c>
       <c r="AH3">
-        <v>13.805180595498889</v>
+        <v>13.805180592633331</v>
       </c>
       <c r="AI3">
-        <v>20.619137621222436</v>
+        <v>20.61913761606651</v>
       </c>
       <c r="AJ3">
-        <v>13.117999985335107</v>
+        <v>13.117999983432311</v>
       </c>
       <c r="AK3">
-        <v>13.763990731158692</v>
+        <v>13.763990726422326</v>
       </c>
       <c r="AL3">
-        <v>14.303659409463945</v>
+        <v>14.303659404191421</v>
       </c>
       <c r="AM3">
-        <v>13.455818211250282</v>
+        <v>13.455818205807157</v>
       </c>
       <c r="AN3">
-        <v>10.898055146937077</v>
+        <v>10.89805514455221</v>
       </c>
       <c r="AO3">
-        <v>15.121746977994546</v>
+        <v>15.12174696852534</v>
       </c>
       <c r="AP3">
-        <v>11.077621843959349</v>
+        <v>11.077621840607552</v>
       </c>
       <c r="AQ3">
-        <v>10.953487693877483</v>
+        <v>10.953487689113052</v>
       </c>
       <c r="AR3">
-        <v>17.700131768723566</v>
+        <v>17.700131768165949</v>
       </c>
       <c r="AS3">
-        <v>12.431085112512225</v>
+        <v>12.431085109647217</v>
       </c>
       <c r="AT3">
-        <v>15.927719588572964</v>
+        <v>15.927719581773195</v>
       </c>
       <c r="AU3">
-        <v>11.552534079742323</v>
+        <v>11.552534079541177</v>
       </c>
       <c r="AV3">
-        <v>10.588690448104206</v>
+        <v>10.588690444109613</v>
       </c>
       <c r="AW3">
-        <v>13.12324705191994</v>
+        <v>13.123247047948317</v>
       </c>
       <c r="AX3">
-        <v>15.303909003735797</v>
+        <v>15.303908999508808</v>
       </c>
       <c r="AY3">
-        <v>17.769018877987804</v>
+        <v>17.769018870628777</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.559847770063055</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>15.309643106780532</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>13.931405346840242</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>15.94673229312861</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.659820714360505</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.179789345653708</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10.755194058210535</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.229611968048246</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.50666459013563</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.318889127070285</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11.881953684715016</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.743837365031922</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.023581230678301</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.479533064867338</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.035900654792927</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.594395538148426</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>11.344356891707601</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>17.220459409398188</v>
+        <v>16.000147245450471</v>
       </c>
       <c r="T2">
         <v>13.132324275350122</v>
@@ -588,55 +477,55 @@
         <v>14.957034538394881</v>
       </c>
       <c r="AA2">
-        <v>14.730756013541086</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>16.422225320800308</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>13.169922426689668</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>16.408794292166409</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>12.241937582536366</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>13.696067382417901</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>11.271554560344898</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>12.485951573328609</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>17.102611569583114</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>12.536612306944086</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>12.374043383682949</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>14.517844802290686</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>12.668339273527021</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>12.44210363328866</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>15.27038105483218</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.376931816662463</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>11.503110239949237</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>16.895028805152535</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>14.086530863974648</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.283528016111635</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>15.452887663780587</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>14.575323109217337</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.35391415535873</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>13.961328231243977</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.01761170527304</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.746362000421385</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.067306968992135</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.492440218567854</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.400291923518186</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.317367369911372</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.737997266455428</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.6421571218831499</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.019299366001761</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.963009919495157</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>9.4093520939954178</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>15.345768386326311</v>
@@ -743,55 +629,55 @@
         <v>15.829330917911175</v>
       </c>
       <c r="AA3">
-        <v>14.608805843402854</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>14.771150250122142</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>15.34045850935208</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>16.781927415173257</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.517517437614186</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>14.408586336067961</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>11.919962784839219</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>13.805180592633331</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>20.61913761606651</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>13.117999983432311</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>13.763990726422326</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>14.303659404191421</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>13.455818205807157</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>10.89805514455221</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>15.12174696852534</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>11.077621840607552</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>10.953487689113052</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>17.700131768165949</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.559847769284387</v>
+        <v>11.479533064867338</v>
       </c>
       <c r="C2">
-        <v>14.688994969230048</v>
+        <v>11.344356891707601</v>
       </c>
       <c r="D2">
-        <v>13.931405350130314</v>
+        <v>12.44210363328866</v>
       </c>
       <c r="E2">
-        <v>15.946732295123967</v>
+        <v>11.503110239949237</v>
       </c>
       <c r="F2">
         <v>10.659820717980404</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.086530866077339</v>
+        <v>10.896010125357197</v>
       </c>
       <c r="C3">
-        <v>13.283528020391595</v>
+        <v>9.4093520939954178</v>
       </c>
       <c r="D3">
-        <v>15.45288767156042</v>
+        <v>11.044606909410176</v>
       </c>
       <c r="E3">
-        <v>14.575323112905336</v>
+        <v>11.266127978668678</v>
       </c>
       <c r="F3">
         <v>10.353914158571193</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.559847769284387</v>
+        <v>12.769944043717169</v>
       </c>
       <c r="C2">
-        <v>14.688994969230048</v>
+        <v>11.479533064867338</v>
       </c>
       <c r="D2">
-        <v>13.931405350130314</v>
+        <v>12.668339273527021</v>
       </c>
       <c r="E2">
-        <v>15.946732295123967</v>
+        <v>12.44210363328866</v>
       </c>
       <c r="F2">
         <v>10.659820717980404</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.086530866077339</v>
+        <v>12.737997266455428</v>
       </c>
       <c r="C3">
-        <v>13.283528020391595</v>
+        <v>10.896010125357197</v>
       </c>
       <c r="D3">
-        <v>15.45288767156042</v>
+        <v>13.455818205807157</v>
       </c>
       <c r="E3">
-        <v>16.122041105704565</v>
+        <v>11.044606909410176</v>
       </c>
       <c r="F3">
         <v>10.353914158571193</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.559847770063055</v>
+      </c>
+      <c r="C2">
+        <v>14.688994967713256</v>
+      </c>
+      <c r="D2">
+        <v>13.931405346840242</v>
+      </c>
+      <c r="E2">
+        <v>15.94673229312861</v>
+      </c>
+      <c r="F2">
+        <v>10.659820714360505</v>
+      </c>
+      <c r="G2">
+        <v>13.790073478982157</v>
+      </c>
+      <c r="H2">
+        <v>10.755194058210535</v>
+      </c>
+      <c r="I2">
+        <v>12.890475928056464</v>
+      </c>
+      <c r="J2">
+        <v>15.50666459013563</v>
+      </c>
+      <c r="K2">
+        <v>12.318889127070285</v>
+      </c>
+      <c r="L2">
+        <v>11.757253322562795</v>
+      </c>
+      <c r="M2">
+        <v>15.131554030195456</v>
+      </c>
+      <c r="N2">
         <v>12.769944043717169</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.479533064867338</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>14.250546110331467</v>
+      </c>
+      <c r="Q2">
+        <v>12.594395538148426</v>
+      </c>
+      <c r="R2">
+        <v>11.344356891707601</v>
+      </c>
+      <c r="T2">
+        <v>12.490709321001036</v>
+      </c>
+      <c r="U2">
+        <v>14.690115627753149</v>
+      </c>
+      <c r="V2">
+        <v>10.793209493386634</v>
+      </c>
+      <c r="W2">
+        <v>9.3257064603013688</v>
+      </c>
+      <c r="X2">
+        <v>13.986831256690488</v>
+      </c>
+      <c r="Y2">
+        <v>14.990734423721753</v>
+      </c>
+      <c r="Z2">
+        <v>14.957034538394881</v>
+      </c>
+      <c r="AA2">
+        <v>14.730756013541086</v>
+      </c>
+      <c r="AB2">
+        <v>16.422225320800308</v>
+      </c>
+      <c r="AC2">
+        <v>13.169922426689668</v>
+      </c>
+      <c r="AD2">
+        <v>16.408794292166409</v>
+      </c>
+      <c r="AE2">
+        <v>12.241937582536366</v>
+      </c>
+      <c r="AF2">
+        <v>13.696067382417901</v>
+      </c>
+      <c r="AG2">
+        <v>11.271554560344898</v>
+      </c>
+      <c r="AH2">
+        <v>12.485951573328609</v>
+      </c>
+      <c r="AI2">
+        <v>17.102611569583114</v>
+      </c>
+      <c r="AJ2">
+        <v>12.536612306944086</v>
+      </c>
+      <c r="AK2">
+        <v>12.374043383682949</v>
+      </c>
+      <c r="AL2">
+        <v>14.517844802290686</v>
+      </c>
+      <c r="AM2">
         <v>12.668339273527021</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>12.44210363328866</v>
       </c>
-      <c r="F2">
-        <v>10.659820717980404</v>
-      </c>
-      <c r="G2">
-        <v>13.790073478614337</v>
-      </c>
-      <c r="H2">
-        <v>10.755194059643845</v>
-      </c>
-      <c r="I2">
-        <v>12.890475930732439</v>
-      </c>
-      <c r="J2">
-        <v>15.506664592418756</v>
-      </c>
-      <c r="K2">
-        <v>12.318889129776732</v>
-      </c>
-      <c r="L2">
-        <v>11.75725332469257</v>
-      </c>
-      <c r="M2">
-        <v>15.13155402855199</v>
-      </c>
-      <c r="N2">
-        <v>12.76994404507564</v>
-      </c>
-      <c r="O2">
-        <v>11.47953306891832</v>
-      </c>
-      <c r="P2">
-        <v>14.250546109841721</v>
-      </c>
-      <c r="Q2">
-        <v>12.594395539372297</v>
-      </c>
-      <c r="R2">
-        <v>11.34435689606458</v>
-      </c>
-      <c r="T2">
-        <v>12.490709321291495</v>
-      </c>
-      <c r="U2">
-        <v>14.690115632844867</v>
-      </c>
-      <c r="V2">
-        <v>10.793209499312214</v>
-      </c>
-      <c r="W2">
-        <v>9.3257064620536543</v>
-      </c>
-      <c r="X2">
-        <v>13.986831257271831</v>
-      </c>
-      <c r="Y2">
-        <v>14.990734427691944</v>
-      </c>
-      <c r="Z2">
-        <v>14.957034543430673</v>
-      </c>
-      <c r="AA2">
-        <v>14.730756017110934</v>
-      </c>
-      <c r="AB2">
-        <v>16.422225327089507</v>
-      </c>
-      <c r="AC2">
-        <v>13.169922429739971</v>
-      </c>
-      <c r="AD2">
-        <v>16.408794299361222</v>
-      </c>
-      <c r="AE2">
-        <v>12.241937585958404</v>
-      </c>
-      <c r="AF2">
-        <v>13.696067385579047</v>
-      </c>
-      <c r="AG2">
-        <v>11.271554563465241</v>
-      </c>
-      <c r="AH2">
-        <v>12.485951576391335</v>
-      </c>
-      <c r="AI2">
-        <v>17.102611575686065</v>
-      </c>
-      <c r="AJ2">
-        <v>12.536612308847509</v>
-      </c>
-      <c r="AK2">
-        <v>12.374043386353012</v>
-      </c>
-      <c r="AL2">
-        <v>14.517844805048441</v>
-      </c>
-      <c r="AM2">
-        <v>12.668339276182166</v>
-      </c>
-      <c r="AN2">
-        <v>12.442103638379205</v>
-      </c>
       <c r="AO2">
-        <v>15.270381057127539</v>
+        <v>15.27038105483218</v>
       </c>
       <c r="AP2">
-        <v>13.801698134574156</v>
+        <v>13.801698130575657</v>
       </c>
       <c r="AQ2">
-        <v>11.503110242531477</v>
+        <v>11.503110239949237</v>
       </c>
       <c r="AR2">
-        <v>16.895028804825131</v>
+        <v>16.895028805152535</v>
       </c>
       <c r="AS2">
-        <v>13.195539691516725</v>
+        <v>13.195539687113536</v>
       </c>
       <c r="AT2">
-        <v>16.464905625053312</v>
+        <v>16.464905620804522</v>
       </c>
       <c r="AU2">
-        <v>10.672296244167514</v>
+        <v>10.672296239833679</v>
       </c>
       <c r="AV2">
-        <v>10.614286768844567</v>
+        <v>10.614286763444658</v>
       </c>
       <c r="AW2">
-        <v>13.739086398381776</v>
+        <v>13.739086393979481</v>
       </c>
       <c r="AX2">
-        <v>16.160546056326488</v>
+        <v>16.160546050492933</v>
       </c>
       <c r="AY2">
-        <v>16.293439159260185</v>
+        <v>16.293439154837319</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>14.086530863974648</v>
+      </c>
+      <c r="C3">
+        <v>13.283528016111635</v>
+      </c>
+      <c r="D3">
+        <v>15.452887663780587</v>
+      </c>
+      <c r="E3">
+        <v>16.122041101394547</v>
+      </c>
+      <c r="F3">
+        <v>10.35391415535873</v>
+      </c>
+      <c r="G3">
+        <v>13.961328231243977</v>
+      </c>
+      <c r="H3">
+        <v>10.01761170527304</v>
+      </c>
+      <c r="I3">
+        <v>12.746362000421385</v>
+      </c>
+      <c r="J3">
+        <v>16.067306968992135</v>
+      </c>
+      <c r="K3">
+        <v>14.1683384412988</v>
+      </c>
+      <c r="L3">
+        <v>12.400291923518186</v>
+      </c>
+      <c r="M3">
+        <v>13.32183700407005</v>
+      </c>
+      <c r="N3">
         <v>12.737997266455428</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>10.896010125357197</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>14.019299366001761</v>
+      </c>
+      <c r="Q3">
+        <v>10.963009919495157</v>
+      </c>
+      <c r="R3">
+        <v>9.4093520939954178</v>
+      </c>
+      <c r="S3">
+        <v>15.345768386326311</v>
+      </c>
+      <c r="T3">
+        <v>13.233402900733427</v>
+      </c>
+      <c r="U3">
+        <v>15.752790174598196</v>
+      </c>
+      <c r="V3">
+        <v>11.981326272019077</v>
+      </c>
+      <c r="W3">
+        <v>10.755356726586301</v>
+      </c>
+      <c r="X3">
+        <v>12.642592879147859</v>
+      </c>
+      <c r="Y3">
+        <v>17.324903240210077</v>
+      </c>
+      <c r="Z3">
+        <v>15.829330917911175</v>
+      </c>
+      <c r="AA3">
+        <v>14.608805843402854</v>
+      </c>
+      <c r="AB3">
+        <v>14.771150250122142</v>
+      </c>
+      <c r="AC3">
+        <v>15.34045850935208</v>
+      </c>
+      <c r="AD3">
+        <v>16.781927415173257</v>
+      </c>
+      <c r="AE3">
+        <v>12.517517437614186</v>
+      </c>
+      <c r="AF3">
+        <v>14.408586336067961</v>
+      </c>
+      <c r="AG3">
+        <v>11.919962784839219</v>
+      </c>
+      <c r="AH3">
+        <v>13.805180592633331</v>
+      </c>
+      <c r="AI3">
+        <v>15.475052706388007</v>
+      </c>
+      <c r="AJ3">
+        <v>13.117999983432311</v>
+      </c>
+      <c r="AK3">
+        <v>13.763990726422326</v>
+      </c>
+      <c r="AL3">
+        <v>14.303659404191421</v>
+      </c>
+      <c r="AM3">
         <v>13.455818205807157</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>11.044606909410176</v>
       </c>
-      <c r="F3">
-        <v>10.353914158571193</v>
-      </c>
-      <c r="G3">
-        <v>13.961328233230978</v>
-      </c>
-      <c r="H3">
-        <v>10.017611707062599</v>
-      </c>
-      <c r="I3">
-        <v>12.746362002134612</v>
-      </c>
-      <c r="J3">
-        <v>16.067306970095657</v>
-      </c>
-      <c r="K3">
-        <v>14.168338443053486</v>
-      </c>
-      <c r="L3">
-        <v>12.400291925469563</v>
-      </c>
-      <c r="M3">
-        <v>13.321880641871694</v>
-      </c>
-      <c r="N3">
-        <v>12.737997269305174</v>
-      </c>
-      <c r="O3">
-        <v>10.896010135284699</v>
-      </c>
-      <c r="P3">
-        <v>14.01929937238341</v>
-      </c>
-      <c r="Q3">
-        <v>10.963009920975033</v>
-      </c>
-      <c r="R3">
-        <v>9.409352096255617</v>
-      </c>
-      <c r="S3">
-        <v>15.345768387577488</v>
-      </c>
-      <c r="T3">
-        <v>13.233402903763453</v>
-      </c>
-      <c r="U3">
-        <v>15.752790177732996</v>
-      </c>
-      <c r="V3">
-        <v>11.981326272541533</v>
-      </c>
-      <c r="W3">
-        <v>10.755356728946074</v>
-      </c>
-      <c r="X3">
-        <v>12.642592881754835</v>
-      </c>
-      <c r="Y3">
-        <v>17.324903245697961</v>
-      </c>
-      <c r="Z3">
-        <v>15.829330923352492</v>
-      </c>
-      <c r="AA3">
-        <v>14.608805847374132</v>
-      </c>
-      <c r="AB3">
-        <v>14.771150255532319</v>
-      </c>
-      <c r="AC3">
-        <v>15.340458512365295</v>
-      </c>
-      <c r="AD3">
-        <v>16.78192741952865</v>
-      </c>
-      <c r="AE3">
-        <v>12.51751743942272</v>
-      </c>
-      <c r="AF3">
-        <v>14.408586339922977</v>
-      </c>
-      <c r="AG3">
-        <v>11.919962787424591</v>
-      </c>
-      <c r="AH3">
-        <v>13.805180595498889</v>
-      </c>
-      <c r="AI3">
-        <v>15.475052712646139</v>
-      </c>
-      <c r="AJ3">
-        <v>13.117999985335107</v>
-      </c>
-      <c r="AK3">
-        <v>13.763990731158692</v>
-      </c>
-      <c r="AL3">
-        <v>14.303659409463945</v>
-      </c>
-      <c r="AM3">
-        <v>13.455818211250282</v>
-      </c>
-      <c r="AN3">
-        <v>11.044606912521752</v>
-      </c>
       <c r="AO3">
-        <v>15.121746977994546</v>
+        <v>15.12174696852534</v>
       </c>
       <c r="AP3">
-        <v>11.077621843959349</v>
+        <v>11.077621840607552</v>
       </c>
       <c r="AQ3">
-        <v>11.266127979588223</v>
+        <v>11.266127978668678</v>
       </c>
       <c r="AR3">
-        <v>17.700131768723566</v>
+        <v>17.700131768165949</v>
       </c>
       <c r="AS3">
-        <v>12.431085112512225</v>
+        <v>12.431085109647217</v>
       </c>
       <c r="AT3">
-        <v>15.927719588572964</v>
+        <v>15.927719581773195</v>
       </c>
       <c r="AU3">
-        <v>11.603428308512079</v>
+        <v>11.603428312146827</v>
       </c>
       <c r="AV3">
-        <v>10.588690448104206</v>
+        <v>10.588690444109613</v>
       </c>
       <c r="AW3">
-        <v>13.12324705191994</v>
+        <v>13.123247047948317</v>
       </c>
       <c r="AX3">
-        <v>15.303909003735797</v>
+        <v>15.303908999508808</v>
       </c>
       <c r="AY3">
-        <v>17.769018877987804</v>
+        <v>17.769018870628777</v>
       </c>
     </row>
   </sheetData>
